--- a/biology/Botanique/Cécidomyie_du_pois/Cécidomyie_du_pois.xlsx
+++ b/biology/Botanique/Cécidomyie_du_pois/Cécidomyie_du_pois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9cidomyie_du_pois</t>
+          <t>Cécidomyie_du_pois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Contarinia pisi
 La cécidomyie du pois (Contarinia pisi), est une espèce d'insectes diptères nématocères de la famille des Cecidomyiidae.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9cidomyie_du_pois</t>
+          <t>Cécidomyie_du_pois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (24 septembre 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (24 septembre 2014) :
 Cecidomyia pisi Loew, 1850,
 Contarinia pisicola Meijere, 1911.</t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9cidomyie_du_pois</t>
+          <t>Cécidomyie_du_pois</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de Contarinia pisi comprend toute l'Europe, y compris la partie européenne de la Russie[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de Contarinia pisi comprend toute l'Europe, y compris la partie européenne de la Russie.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%A9cidomyie_du_pois</t>
+          <t>Cécidomyie_du_pois</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'adulte (imago) est un moucheron délicat, de 2 à 3 mm de long, de couleur gris-brun, aux pattes longues et fines, et aux antennes multisegmentées. Ces dernières sont recourbées vers l'arrière chez le mâle[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'adulte (imago) est un moucheron délicat, de 2 à 3 mm de long, de couleur gris-brun, aux pattes longues et fines, et aux antennes multisegmentées. Ces dernières sont recourbées vers l'arrière chez le mâle.
 Les œufs, de 0,25 mm de long, sont à peine visibles à l'œil nu. Ils sont blanc translucide et de forme ovale.
 Les larves, longues de 2 à 3 mm, sont d'une couleur blanc sale.
 </t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C%C3%A9cidomyie_du_pois</t>
+          <t>Cécidomyie_du_pois</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,13 +627,15 @@
           <t>Cycle de vie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cycle biologique comprend généralement deux générations annuelles de mai à juillet.
 L'hibernation se fait sous forme de larves qui passent l'hiver dans des cocons dans le sol des champs infestés. La nymphose se produit au printemps (fin mai-début juin) et dure environ deux semaines avant que les adultes émergent. Ceux-ci ont une durée de vie limitée de quatre à six jours.
 Les femelles s'accouplent rapidement et se dispersent dans les nouvelles cultures, pour pondre sur les stipules, les jeunes pousses, à l'intérieur des fleurs ou sur les boutons floraux, en paquets de 20 à 30 œufs (parfois jusqu'à 100 œufs).
 L'éclosion se produit au bout de quatre jours, et les jeunes larves se nourrissent en grignotant à la surface les tissus de la plante, causant des déformations de croissance.
-Au bout d'une dizaine de jours, les larves descendent vers le sol. Là elles peuvent se nymphoser immédiatement pour donner lieu à une nouvelle génération en une quinzaine de jours. Les larves, surtout celles de la deuxième génération, peuvent aussi hiverner dans le sol et même y rester en diapause plusieurs années[3].
+Au bout d'une dizaine de jours, les larves descendent vers le sol. Là elles peuvent se nymphoser immédiatement pour donner lieu à une nouvelle génération en une quinzaine de jours. Les larves, surtout celles de la deuxième génération, peuvent aussi hiverner dans le sol et même y rester en diapause plusieurs années.
 </t>
         </is>
       </c>
